--- a/Week_02/exercises/chicken_data.xlsx
+++ b/Week_02/exercises/chicken_data.xlsx
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2435.836917152873</v>
+        <v>2688.532594586096</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2157.180544609028</v>
+        <v>1965.901557626924</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2558.418034509755</v>
+        <v>2254.403248401758</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2679.200608096602</v>
+        <v>2028.074696923972</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2556.855145138803</v>
+        <v>2572.417460311121</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2749.335405965483</v>
+        <v>2195.056071744119</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2246.565466332238</v>
+        <v>2632.418212802069</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2959.190869729992</v>
+        <v>2620.380755418706</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2728.468814160995</v>
+        <v>2173.484756769909</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2449.062959399676</v>
+        <v>2688.895652017544</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2196.644757527044</v>
+        <v>2868.568091572011</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2504.121595305146</v>
+        <v>2875.723282754358</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2400.690361816204</v>
+        <v>2450.391205874362</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2635.299215849555</v>
+        <v>2210.673412425206</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2512.049450608349</v>
+        <v>1923.399733586919</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2548.551683322371</v>
+        <v>2583.33898523142</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2613.606983816444</v>
+        <v>2690.38986746174</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2603.844751609005</v>
+        <v>2368.587660086343</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2258.823117658525</v>
+        <v>2590.052264900998</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2586.092457619088</v>
+        <v>2312.526535078466</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2415.373741013068</v>
+        <v>1993.386020802698</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2315.352861083068</v>
+        <v>2245.534147682519</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2411.213526488157</v>
+        <v>1960.281952500733</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2707.369995982585</v>
+        <v>2380.764134185687</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2828.033114144734</v>
+        <v>2555.816147519085</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2805.739135758056</v>
+        <v>2501.378690265012</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2334.902532579886</v>
+        <v>2142.981373807719</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2700.569795953575</v>
+        <v>2532.444842822065</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2216.46657649511</v>
+        <v>2666.596272993236</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2674.342153167182</v>
+        <v>2482.976572553427</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2352.121480965922</v>
+        <v>2221.708718227447</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2720.625199061993</v>
+        <v>2850.596686855547</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2927.473812362682</v>
+        <v>2243.127624874272</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2219.88552286225</v>
+        <v>2492.57595602238</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1160,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2479.038035806728</v>
+        <v>2450.180318645452</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2095.447620693532</v>
+        <v>2744.099494847467</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2316.371335305255</v>
+        <v>2370.394633188179</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2277.808500381769</v>
+        <v>2460.0315350712</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2708.372823419244</v>
+        <v>2805.802116762897</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2419.522113597982</v>
+        <v>2363.104943800628</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2559.902451574447</v>
+        <v>2556.618342346064</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2373.096997799733</v>
+        <v>2721.511210361383</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2813.339515670859</v>
+        <v>2592.147929064774</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2336.714468537502</v>
+        <v>2482.124595119961</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2499.189550963161</v>
+        <v>2508.275744893675</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3165.956792558491</v>
+        <v>2694.476488546902</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2375.659024484306</v>
+        <v>2296.31246940317</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2683.999631821952</v>
+        <v>2485.626322706962</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2270.759002694604</v>
+        <v>2615.63192381382</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2386.460316291711</v>
+        <v>2699.704099985883</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2411.413683034364</v>
+        <v>2347.175907364473</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1980.188220613222</v>
+        <v>2897.107052487365</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1412,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2061.673231776081</v>
+        <v>2319.3882600126</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2288.575436367175</v>
+        <v>2209.311369099897</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2400.344192119332</v>
+        <v>2595.70028912566</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2063.962021565017</v>
+        <v>2037.267162432471</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2351.912752193953</v>
+        <v>2170.623542623182</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2587.234531987627</v>
+        <v>2739.737039581086</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2597.946718573713</v>
+        <v>2187.08742067872</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2720.208329528295</v>
+        <v>2918.940568015431</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1524,7 +1524,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2264.112288476385</v>
+        <v>2484.628453659106</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2443.494437938852</v>
+        <v>2477.308518732073</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2549.443680121648</v>
+        <v>2615.552747940956</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2933.223660043263</v>
+        <v>2584.314568912373</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2544.096037928604</v>
+        <v>2369.636745124662</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2747.052614473884</v>
+        <v>2297.976602397617</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2756.049072383002</v>
+        <v>2387.261890606403</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1995.268720992748</v>
+        <v>2366.251242456934</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2721.741529605744</v>
+        <v>2405.857849411662</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3101.184169675052</v>
+        <v>2751.056570375451</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2237.994464245381</v>
+        <v>2439.695393028866</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2585.124156858858</v>
+        <v>2492.077144829807</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2401.339725534916</v>
+        <v>2132.821255120066</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2145.456781038363</v>
+        <v>2120.938152345728</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2512.675996338865</v>
+        <v>2873.425104709176</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2483.165499312508</v>
+        <v>2234.832574301235</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2480.321535060965</v>
+        <v>1975.528091927926</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2803.635402370798</v>
+        <v>2915.607537257761</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2479.062020985308</v>
+        <v>2719.848047847659</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2698.708061434907</v>
+        <v>2421.206927196575</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2253.844101819943</v>
+        <v>2515.123154434003</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1818,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2721.631003150052</v>
+        <v>2299.266900197219</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2674.675917214097</v>
+        <v>2138.558464521807</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2804.627274782364</v>
+        <v>2918.25231279133</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2062.533735395846</v>
+        <v>2627.899468671551</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2814.867887720169</v>
+        <v>2592.180515340556</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2414.638037314444</v>
+        <v>2479.985568592167</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2283.506643128605</v>
+        <v>2363.298892844899</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2507.744559787777</v>
+        <v>2395.291068515445</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2235.94787703692</v>
+        <v>2756.878739952655</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2604.1220773692</v>
+        <v>2604.45648560473</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2483.91068518715</v>
+        <v>2244.439965188514</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2879.363471137186</v>
+        <v>2589.084341701219</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2509.057321974064</v>
+        <v>2063.478342701042</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2290.971897351606</v>
+        <v>2277.822518086045</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2657.234721949924</v>
+        <v>2727.044274353658</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2353.422440800807</v>
+        <v>2711.00726529317</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2681.538659293906</v>
+        <v>2287.262507342937</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2563.850789057699</v>
+        <v>2298.478305087307</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2342.702012511284</v>
+        <v>2528.846337627555</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>

--- a/Week_02/exercises/chicken_data.xlsx
+++ b/Week_02/exercises/chicken_data.xlsx
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2688.532594586096</v>
+        <v>2574.816552509427</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1965.901557626924</v>
+        <v>2425.835268585861</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2254.403248401758</v>
+        <v>2685.286669669742</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2028.074696923972</v>
+        <v>3192.867840608284</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2572.417460311121</v>
+        <v>3028.414393023954</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2195.056071744119</v>
+        <v>2227.734032342067</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2632.418212802069</v>
+        <v>2870.278700391811</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2620.380755418706</v>
+        <v>3178.787604956139</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2173.484756769909</v>
+        <v>2011.277088452344</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2688.895652017544</v>
+        <v>2489.441693625994</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2868.568091572011</v>
+        <v>2624.894974801698</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2875.723282754358</v>
+        <v>2387.893916466247</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2450.391205874362</v>
+        <v>2581.893446270131</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2210.673412425206</v>
+        <v>2654.972974175284</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1923.399733586919</v>
+        <v>2319.093760253198</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2583.33898523142</v>
+        <v>2652.290402395425</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2690.38986746174</v>
+        <v>2051.386207436336</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2368.587660086343</v>
+        <v>2465.968505919783</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2590.052264900998</v>
+        <v>2311.65118222671</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2312.526535078466</v>
+        <v>2752.954159752297</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1993.386020802698</v>
+        <v>2292.616949244655</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2245.534147682519</v>
+        <v>2619.289823255386</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1960.281952500733</v>
+        <v>2636.494735058111</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2380.764134185687</v>
+        <v>2571.829837705208</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2555.816147519085</v>
+        <v>2469.946886505041</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2501.378690265012</v>
+        <v>2846.88253073673</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2142.981373807719</v>
+        <v>2751.265044748925</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2532.444842822065</v>
+        <v>2684.398019894207</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2666.596272993236</v>
+        <v>2298.924111321011</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2482.976572553427</v>
+        <v>2574.001684485734</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2221.708718227447</v>
+        <v>2452.215908462161</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2850.596686855547</v>
+        <v>2387.286016828053</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2243.127624874272</v>
+        <v>2725.537900768262</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2492.57595602238</v>
+        <v>2929.867879035548</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1160,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2450.180318645452</v>
+        <v>2307.400190491851</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2744.099494847467</v>
+        <v>2214.820432713489</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2370.394633188179</v>
+        <v>2402.255186244194</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2460.0315350712</v>
+        <v>2436.881252985357</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2805.802116762897</v>
+        <v>2526.781723409068</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2363.104943800628</v>
+        <v>2452.449831823703</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2556.618342346064</v>
+        <v>2187.522297460956</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2721.511210361383</v>
+        <v>2704.242597278662</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2592.147929064774</v>
+        <v>2686.235873853393</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2482.124595119961</v>
+        <v>2358.723022915133</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2508.275744893675</v>
+        <v>1940.130249994298</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2694.476488546902</v>
+        <v>2845.664362035478</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2296.31246940317</v>
+        <v>2278.387354446867</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2485.626322706962</v>
+        <v>2660.858042394414</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2615.63192381382</v>
+        <v>2239.636660191032</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2699.704099985883</v>
+        <v>2201.20369961051</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2347.175907364473</v>
+        <v>2820.980663065672</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2897.107052487365</v>
+        <v>2334.891251597819</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1412,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2319.3882600126</v>
+        <v>2496.036282879492</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2209.311369099897</v>
+        <v>2507.147705670767</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2595.70028912566</v>
+        <v>2444.198476128199</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2037.267162432471</v>
+        <v>2183.408450908413</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2170.623542623182</v>
+        <v>2521.386838821266</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2739.737039581086</v>
+        <v>2726.311835179725</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2187.08742067872</v>
+        <v>2567.296972609848</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2918.940568015431</v>
+        <v>2441.530824145181</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1524,7 +1524,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2484.628453659106</v>
+        <v>2396.526167966448</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2477.308518732073</v>
+        <v>2555.752300189391</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2615.552747940956</v>
+        <v>2419.039279222973</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2584.314568912373</v>
+        <v>2459.075484317392</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2369.636745124662</v>
+        <v>2457.215216689941</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2297.976602397617</v>
+        <v>2736.076403806782</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2387.261890606403</v>
+        <v>2248.929646544153</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2366.251242456934</v>
+        <v>2598.640321780035</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2405.857849411662</v>
+        <v>2272.550997864733</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2751.056570375451</v>
+        <v>2355.887795478803</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2439.695393028866</v>
+        <v>2445.838269304586</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2492.077144829807</v>
+        <v>2536.543277174986</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2132.821255120066</v>
+        <v>2570.609546308289</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2120.938152345728</v>
+        <v>2335.258171274527</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2873.425104709176</v>
+        <v>2271.156072519505</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2234.832574301235</v>
+        <v>2548.219603126883</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1975.528091927926</v>
+        <v>2502.595147754795</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2915.607537257761</v>
+        <v>2213.409099868148</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2719.848047847659</v>
+        <v>2406.318685506397</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2421.206927196575</v>
+        <v>2817.473163552769</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2515.123154434003</v>
+        <v>2618.28555401558</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1818,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2299.266900197219</v>
+        <v>2516.316671614976</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2138.558464521807</v>
+        <v>2260.235180130427</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2918.25231279133</v>
+        <v>2454.543681957649</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2627.899468671551</v>
+        <v>2474.11885668683</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2592.180515340556</v>
+        <v>2580.026480640453</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2479.985568592167</v>
+        <v>2239.284785098521</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2363.298892844899</v>
+        <v>2465.792751191723</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2395.291068515445</v>
+        <v>2437.325477331648</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2756.878739952655</v>
+        <v>2477.363149874042</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2604.45648560473</v>
+        <v>2665.446919136131</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2244.439965188514</v>
+        <v>2896.100914505673</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2589.084341701219</v>
+        <v>2397.838016677696</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2063.478342701042</v>
+        <v>2450.998501159281</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2277.822518086045</v>
+        <v>2562.272781600752</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2727.044274353658</v>
+        <v>2543.882024326805</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2711.00726529317</v>
+        <v>2089.162351557822</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2287.262507342937</v>
+        <v>2291.080519210814</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2298.478305087307</v>
+        <v>2341.580018080169</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2528.846337627555</v>
+        <v>2471.629438827513</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>

--- a/Week_02/exercises/chicken_data.xlsx
+++ b/Week_02/exercises/chicken_data.xlsx
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2574.816552509427</v>
+        <v>2604.578042550626</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2425.835268585861</v>
+        <v>2194.826720233001</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2685.286669669742</v>
+        <v>2370.664644709065</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3192.867840608284</v>
+        <v>2692.934526763144</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3028.414393023954</v>
+        <v>2551.50286862071</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2227.734032342067</v>
+        <v>2275.632223638939</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2870.278700391811</v>
+        <v>2414.008313336423</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3178.787604956139</v>
+        <v>2687.260181112395</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2011.277088452344</v>
+        <v>2648.475680449124</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2489.441693625994</v>
+        <v>2459.072075691825</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2624.894974801698</v>
+        <v>2391.004688965097</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2387.893916466247</v>
+        <v>2001.625595241265</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2581.893446270131</v>
+        <v>2128.24907130432</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2654.972974175284</v>
+        <v>1908.377046642241</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2319.093760253198</v>
+        <v>2263.546525582679</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2652.290402395425</v>
+        <v>2593.05985651657</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2051.386207436336</v>
+        <v>2243.77558956549</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2465.968505919783</v>
+        <v>2632.744948676614</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2311.65118222671</v>
+        <v>2476.265076793445</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2752.954159752297</v>
+        <v>2275.802628831876</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2292.616949244655</v>
+        <v>3130.556323234899</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2619.289823255386</v>
+        <v>2541.91850977562</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2636.494735058111</v>
+        <v>2526.515851577402</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2571.829837705208</v>
+        <v>2973.637920238667</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2469.946886505041</v>
+        <v>2500.769251247097</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2846.88253073673</v>
+        <v>2369.458928396057</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2751.265044748925</v>
+        <v>2410.925723199036</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2684.398019894207</v>
+        <v>2453.91782889455</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2298.924111321011</v>
+        <v>2665.095614241383</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2574.001684485734</v>
+        <v>2237.352146237866</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2452.215908462161</v>
+        <v>2306.301121247367</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2387.286016828053</v>
+        <v>2893.655942975597</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2725.537900768262</v>
+        <v>2326.027476091054</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2929.867879035548</v>
+        <v>2449.223983222815</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1160,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2307.400190491851</v>
+        <v>2234.309332560495</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2214.820432713489</v>
+        <v>2734.533696473581</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2402.255186244194</v>
+        <v>2971.46047699724</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2436.881252985357</v>
+        <v>2256.243436187932</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2526.781723409068</v>
+        <v>2734.636130998853</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2452.449831823703</v>
+        <v>2301.444121697626</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2187.522297460956</v>
+        <v>2587.865263127935</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2704.242597278662</v>
+        <v>2280.425931243205</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2686.235873853393</v>
+        <v>2777.048467659151</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2358.723022915133</v>
+        <v>2630.034148962362</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1940.130249994298</v>
+        <v>2727.711027200107</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2845.664362035478</v>
+        <v>2395.233501670995</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2278.387354446867</v>
+        <v>2598.173290922146</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2660.858042394414</v>
+        <v>2411.051745192602</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2239.636660191032</v>
+        <v>2345.560580209713</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2201.20369961051</v>
+        <v>2647.816196450667</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2820.980663065672</v>
+        <v>1932.27120205623</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2334.891251597819</v>
+        <v>2218.88125937516</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1412,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2496.036282879492</v>
+        <v>2713.496491925594</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2507.147705670767</v>
+        <v>2261.264439811971</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2444.198476128199</v>
+        <v>2507.623343687952</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2183.408450908413</v>
+        <v>2308.206008859004</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2521.386838821266</v>
+        <v>2571.964394973911</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2726.311835179725</v>
+        <v>2496.569283715083</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2567.296972609848</v>
+        <v>2623.213125323411</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2441.530824145181</v>
+        <v>2958.670783885572</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1524,7 +1524,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2396.526167966448</v>
+        <v>2481.07185482956</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2555.752300189391</v>
+        <v>2232.031919273102</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2419.039279222973</v>
+        <v>2479.04899475141</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2459.075484317392</v>
+        <v>2394.331582537101</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2457.215216689941</v>
+        <v>2569.062519098152</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2736.076403806782</v>
+        <v>2492.322648555428</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2248.929646544153</v>
+        <v>2701.356584755917</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2598.640321780035</v>
+        <v>2369.283545533054</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2272.550997864733</v>
+        <v>2146.974249265195</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2355.887795478803</v>
+        <v>2171.794443224963</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2445.838269304586</v>
+        <v>1953.404476797296</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2536.543277174986</v>
+        <v>2251.764894909158</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2570.609546308289</v>
+        <v>2724.680750442288</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2335.258171274527</v>
+        <v>1869.212899543412</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2271.156072519505</v>
+        <v>2864.081535996003</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2548.219603126883</v>
+        <v>2610.512462928701</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2502.595147754795</v>
+        <v>2855.590636292163</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2213.409099868148</v>
+        <v>2347.240238226617</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2406.318685506397</v>
+        <v>2522.824052535107</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2817.473163552769</v>
+        <v>2715.510485109839</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2618.28555401558</v>
+        <v>2860.98959337228</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1818,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2516.316671614976</v>
+        <v>2343.161004013245</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2260.235180130427</v>
+        <v>2315.728176339995</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2454.543681957649</v>
+        <v>2191.140640627313</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2474.11885668683</v>
+        <v>2441.65224903955</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2580.026480640453</v>
+        <v>2683.789734519455</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2239.284785098521</v>
+        <v>2365.2695531114</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2465.792751191723</v>
+        <v>2629.92268081562</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2437.325477331648</v>
+        <v>2619.953301146743</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2477.363149874042</v>
+        <v>2725.544247400742</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2665.446919136131</v>
+        <v>2612.630223928554</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2896.100914505673</v>
+        <v>2621.74625368469</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2397.838016677696</v>
+        <v>2481.051347211167</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2450.998501159281</v>
+        <v>2583.695646597954</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2562.272781600752</v>
+        <v>2555.171283048811</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2543.882024326805</v>
+        <v>2504.297117816178</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2089.162351557822</v>
+        <v>2598.04005396834</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2291.080519210814</v>
+        <v>2107.283177204835</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2341.580018080169</v>
+        <v>2850.533685220536</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2471.629438827513</v>
+        <v>2777.364335863018</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>

--- a/Week_02/exercises/chicken_data.xlsx
+++ b/Week_02/exercises/chicken_data.xlsx
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2604.578042550626</v>
+        <v>2261.352255919857</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2194.826720233001</v>
+        <v>2866.760634013365</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2370.664644709065</v>
+        <v>2814.683914259658</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2692.934526763144</v>
+        <v>2484.408045214649</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2551.50286862071</v>
+        <v>2442.026204629659</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2275.632223638939</v>
+        <v>2873.457863212854</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2414.008313336423</v>
+        <v>2715.997597076681</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2687.260181112395</v>
+        <v>2812.10899179185</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2648.475680449124</v>
+        <v>2173.762761785878</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2459.072075691825</v>
+        <v>2377.113700461629</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2391.004688965097</v>
+        <v>2757.706272833729</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -838,7 +838,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2001.625595241265</v>
+        <v>2187.644376912733</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2128.24907130432</v>
+        <v>2398.952593646779</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1908.377046642241</v>
+        <v>2452.3392410503</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2263.546525582679</v>
+        <v>2253.762195974447</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2593.05985651657</v>
+        <v>2704.701103098414</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -908,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2243.77558956549</v>
+        <v>2610.343866177408</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -922,7 +922,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2632.744948676614</v>
+        <v>2360.755614536262</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2476.265076793445</v>
+        <v>2389.379104671955</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2275.802628831876</v>
+        <v>2474.13459674256</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3130.556323234899</v>
+        <v>2097.605971599114</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2541.91850977562</v>
+        <v>2543.820430482153</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2526.515851577402</v>
+        <v>2766.512124386834</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1006,7 +1006,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2973.637920238667</v>
+        <v>2682.782432686504</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1020,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2500.769251247097</v>
+        <v>2123.806593444313</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2369.458928396057</v>
+        <v>2563.804803051774</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1048,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2410.925723199036</v>
+        <v>1879.183628354419</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1062,7 +1062,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2453.91782889455</v>
+        <v>2626.253901698239</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2665.095614241383</v>
+        <v>2781.29510260394</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2237.352146237866</v>
+        <v>2069.916092456157</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2306.301121247367</v>
+        <v>2474.869280228502</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2893.655942975597</v>
+        <v>2651.159309918582</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2326.027476091054</v>
+        <v>2692.102927384455</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2449.223983222815</v>
+        <v>2461.54327263778</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1160,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2234.309332560495</v>
+        <v>2607.255950878571</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2734.533696473581</v>
+        <v>2360.895801057436</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1188,7 +1188,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2971.46047699724</v>
+        <v>2520.367897704321</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1202,7 +1202,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2256.243436187932</v>
+        <v>2604.225443713458</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2734.636130998853</v>
+        <v>2517.457470075786</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2301.444121697626</v>
+        <v>2679.178573749071</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2587.865263127935</v>
+        <v>2547.122841972617</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>2280.425931243205</v>
+        <v>2497.949382787788</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2777.048467659151</v>
+        <v>2531.032130494607</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2630.034148962362</v>
+        <v>2618.627593018617</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2727.711027200107</v>
+        <v>2913.608004455425</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1314,7 +1314,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2395.233501670995</v>
+        <v>2498.34037969209</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2598.173290922146</v>
+        <v>2948.513366649515</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2411.051745192602</v>
+        <v>2473.743108022494</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1356,7 +1356,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2345.560580209713</v>
+        <v>2348.300048424402</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1370,7 +1370,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2647.816196450667</v>
+        <v>2687.78530967107</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1932.27120205623</v>
+        <v>2458.448172501555</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1398,7 +1398,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2218.88125937516</v>
+        <v>2608.385807395733</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1412,7 +1412,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2713.496491925594</v>
+        <v>2419.563039244929</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2261.264439811971</v>
+        <v>3160.746532451487</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2507.623343687952</v>
+        <v>2544.081379836345</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1454,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2308.206008859004</v>
+        <v>2171.29585568589</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1468,7 +1468,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2571.964394973911</v>
+        <v>2580.571331107209</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1482,7 +1482,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2496.569283715083</v>
+        <v>2603.722463635299</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1496,7 +1496,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2623.213125323411</v>
+        <v>2536.948469078876</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2958.670783885572</v>
+        <v>2583.433279132879</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1524,7 +1524,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>2481.07185482956</v>
+        <v>2298.828604119607</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>2232.031919273102</v>
+        <v>2228.079497208702</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1552,7 +1552,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>2479.04899475141</v>
+        <v>2679.054844849538</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2394.331582537101</v>
+        <v>2487.155602590031</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>2569.062519098152</v>
+        <v>2160.802926713221</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2492.322648555428</v>
+        <v>2336.208448220647</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2701.356584755917</v>
+        <v>2957.750543274681</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2369.283545533054</v>
+        <v>2117.773060220977</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2146.974249265195</v>
+        <v>2663.805911480139</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2171.794443224963</v>
+        <v>2669.772204271161</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1664,7 +1664,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1953.404476797296</v>
+        <v>2528.10225622946</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2251.764894909158</v>
+        <v>2808.11257774681</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2724.680750442288</v>
+        <v>2201.798874298113</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1869.212899543412</v>
+        <v>2135.459398942612</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1720,7 +1720,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2864.081535996003</v>
+        <v>2372.881737493197</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2610.512462928701</v>
+        <v>2298.094157299829</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2855.590636292163</v>
+        <v>2369.283261339687</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2347.240238226617</v>
+        <v>3030.811424410956</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2522.824052535107</v>
+        <v>2551.626722455106</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2715.510485109839</v>
+        <v>2097.859247194994</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1804,7 +1804,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2860.98959337228</v>
+        <v>2323.122312631757</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -1818,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2343.161004013245</v>
+        <v>2563.969678609977</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1832,7 +1832,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2315.728176339995</v>
+        <v>2419.910584566264</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2191.140640627313</v>
+        <v>2100.212429305009</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2441.65224903955</v>
+        <v>2378.070787656613</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2683.789734519455</v>
+        <v>2216.869899380566</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2365.2695531114</v>
+        <v>2659.743738532919</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2629.92268081562</v>
+        <v>2408.935474350457</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
@@ -1916,7 +1916,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2619.953301146743</v>
+        <v>3242.757250748018</v>
       </c>
       <c r="C90" t="s">
         <v>3</v>
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2725.544247400742</v>
+        <v>2421.369014607306</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2612.630223928554</v>
+        <v>2506.001967739001</v>
       </c>
       <c r="C92" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2621.74625368469</v>
+        <v>2878.128181231109</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -1972,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2481.051347211167</v>
+        <v>2208.427894708214</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1986,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2583.695646597954</v>
+        <v>2975.725699556423</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2000,7 +2000,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2555.171283048811</v>
+        <v>2075.874774521152</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2504.297117816178</v>
+        <v>2325.479599910315</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2598.04005396834</v>
+        <v>2593.75930697695</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2107.283177204835</v>
+        <v>2485.36454328848</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2850.533685220536</v>
+        <v>2229.031712252813</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>2777.364335863018</v>
+        <v>2580.653805930851</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
